--- a/target/classes/dataExcel/TestResults.xlsx
+++ b/target/classes/dataExcel/TestResults.xlsx
@@ -3787,19 +3787,19 @@
       </c>
       <c r="C9" s="34" t="n">
         <f ref="C9" si="0" t="shared">B9-(E9+G9+I9)</f>
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="38" t="n">
         <f ref="D9" si="1" t="shared">C9*100/B9</f>
-        <v>-100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="43" t="n">
         <f>RegressionTests!D8</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" s="45" t="n">
         <f ref="F9" si="2" t="shared">E9*100/B9</f>
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="G9" s="44" t="n">
         <f>RegressionTests!E8</f>
@@ -3816,7 +3816,7 @@
       <c r="J9" s="39"/>
       <c r="K9" s="42" t="n">
         <f ref="K9" si="4" t="shared">(I9+G9+E9)/B9</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row ht="15.75" r="10" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
@@ -3829,19 +3829,19 @@
       </c>
       <c r="C10" s="20" t="n">
         <f>SUM(C9:C9)</f>
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="30" t="n">
         <f>AVERAGE(D9:D9)</f>
-        <v>-100.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" s="31" t="n">
         <f>SUM(E9:E9)</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F10" s="30" t="n">
         <f>AVERAGE(F9:F9)</f>
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="G10" s="31" t="n">
         <f>SUM(G9:G9)</f>
@@ -3858,7 +3858,7 @@
       <c r="J10" s="32"/>
       <c r="K10" s="33" t="n">
         <f>AVERAGE(K9:K9)</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -3992,7 +3992,7 @@
       <c r="C8" s="52"/>
       <c r="D8" s="7" t="n">
         <f>SUM(D7:D7)</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" s="7" t="n">
         <f>SUM(E7:E7)</f>

--- a/target/classes/dataExcel/TestResults.xlsx
+++ b/target/classes/dataExcel/TestResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7485" windowWidth="17220" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="7485" windowWidth="17220" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" r:id="rId1" sheetId="11"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Test Case</t>
   </si>
@@ -604,7 +604,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="3">
@@ -654,7 +654,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="3"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
@@ -1144,19 +1143,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1168,7 +1167,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt formatCode="0%" idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,19 +2136,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2161,7 +2160,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt formatCode="0%" idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3399,6 +3398,99 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEE9443-1FAD-4EB7-A148-42DD86931EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5172074" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>590476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4EAB56-4B22-4A00-A472-4066550124C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8305800" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3667,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M17"/>
+  <dimension ref="A4:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,7 +3796,7 @@
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="12"/>
@@ -3731,17 +3823,17 @@
       <c r="K6" s="12"/>
     </row>
     <row ht="15.75" r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
     </row>
     <row ht="15.75" r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
@@ -3753,28 +3845,28 @@
       <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3782,39 +3874,40 @@
       <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="34" t="n">
+      <c r="B9" s="18" t="n">
+        <f>RegressionTests!D8+RegressionTests!E8</f>
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="33" t="n">
         <f ref="C9" si="0" t="shared">B9-(E9+G9+I9)</f>
         <v>0.0</v>
       </c>
-      <c r="D9" s="38" t="n">
+      <c r="D9" s="37" t="n">
         <f ref="D9" si="1" t="shared">C9*100/B9</f>
         <v>0.0</v>
       </c>
-      <c r="E9" s="43" t="n">
+      <c r="E9" s="42" t="n">
         <f>RegressionTests!D8</f>
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="44" t="n">
         <f ref="F9" si="2" t="shared">E9*100/B9</f>
         <v>100.0</v>
       </c>
-      <c r="G9" s="44" t="n">
+      <c r="G9" s="43" t="n">
         <f>RegressionTests!E8</f>
         <v>0.0</v>
       </c>
-      <c r="H9" s="41" t="n">
+      <c r="H9" s="40" t="n">
         <f ref="H9" si="3" t="shared">G9*100/B9</f>
         <v>0.0</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="39" t="n">
         <f>RegressionTests!F8</f>
         <v>0.0</v>
       </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="42" t="n">
+      <c r="J9" s="38"/>
+      <c r="K9" s="41" t="n">
         <f ref="K9" si="4" t="shared">(I9+G9+E9)/B9</f>
         <v>1.0</v>
       </c>
@@ -3825,60 +3918,54 @@
       </c>
       <c r="B10" s="20" t="n">
         <f>SUM(B9:B9)</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C10" s="20" t="n">
         <f>SUM(C9:C9)</f>
         <v>0.0</v>
       </c>
-      <c r="D10" s="30" t="n">
+      <c r="D10" s="29" t="n">
         <f>AVERAGE(D9:D9)</f>
         <v>0.0</v>
       </c>
-      <c r="E10" s="31" t="n">
+      <c r="E10" s="30" t="n">
         <f>SUM(E9:E9)</f>
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="29" t="n">
         <f>AVERAGE(F9:F9)</f>
         <v>100.0</v>
       </c>
-      <c r="G10" s="31" t="n">
+      <c r="G10" s="30" t="n">
         <f>SUM(G9:G9)</f>
         <v>0.0</v>
       </c>
-      <c r="H10" s="30" t="n">
+      <c r="H10" s="29" t="n">
         <f>AVERAGE(H9:H9)</f>
         <v>0.0</v>
       </c>
-      <c r="I10" s="31" t="n">
+      <c r="I10" s="30" t="n">
         <f>SUM(I9:I9)</f>
         <v>0.0</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33" t="n">
+      <c r="J10" s="31"/>
+      <c r="K10" s="32" t="n">
         <f>AVERAGE(K9:K9)</f>
         <v>1.0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-    </row>
-    <row ht="15.75" r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row ht="15.75" r="17" spans="12:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3894,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,30 +4021,30 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="25"/>
+      <c r="F4" s="24"/>
     </row>
     <row customHeight="1" ht="15" r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row customHeight="1" ht="15" r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -3971,7 +4058,7 @@
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="49"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -3979,7 +4066,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -3988,11 +4075,11 @@
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="7" t="n">
         <f>SUM(D7:D7)</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" s="7" t="n">
         <f>SUM(E7:E7)</f>
@@ -4007,11 +4094,11 @@
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
     <row customHeight="1" ht="15" r="14" spans="1:6" x14ac:dyDescent="0.25"/>
     <row customHeight="1" ht="27" r="17" x14ac:dyDescent="0.25"/>
@@ -4029,6 +4116,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>